--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Ror1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H2">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,31 +552,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>5.68069553002184</v>
+        <v>0.154509</v>
       </c>
       <c r="N2">
-        <v>5.68069553002184</v>
+        <v>0.309018</v>
       </c>
       <c r="O2">
-        <v>0.324113897746809</v>
+        <v>0.007663950691541977</v>
       </c>
       <c r="P2">
-        <v>0.324113897746809</v>
+        <v>0.006524939028629997</v>
       </c>
       <c r="Q2">
-        <v>24.61916795541107</v>
+        <v>0.7136906677920001</v>
       </c>
       <c r="R2">
-        <v>24.61916795541107</v>
+        <v>4.282144006752</v>
       </c>
       <c r="S2">
-        <v>0.324113897746809</v>
+        <v>0.007663950691541977</v>
       </c>
       <c r="T2">
-        <v>0.324113897746809</v>
+        <v>0.006524939028629997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H3">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.689576194217661</v>
+        <v>6.050990666666666</v>
       </c>
       <c r="N3">
-        <v>0.689576194217661</v>
+        <v>18.152972</v>
       </c>
       <c r="O3">
-        <v>0.03934398999561193</v>
+        <v>0.3001410539471102</v>
       </c>
       <c r="P3">
-        <v>0.03934398999561193</v>
+        <v>0.3833014112072032</v>
       </c>
       <c r="Q3">
-        <v>2.98850590632385</v>
+        <v>27.950058376512</v>
       </c>
       <c r="R3">
-        <v>2.98850590632385</v>
+        <v>251.550525388608</v>
       </c>
       <c r="S3">
-        <v>0.03934398999561193</v>
+        <v>0.3001410539471102</v>
       </c>
       <c r="T3">
-        <v>0.03934398999561193</v>
+        <v>0.3833014112072032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H4">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +673,96 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.1565778478189</v>
+        <v>0.9875526666666666</v>
       </c>
       <c r="N4">
-        <v>11.1565778478189</v>
+        <v>2.962658</v>
       </c>
       <c r="O4">
-        <v>0.636542112257579</v>
+        <v>0.0489845571625868</v>
       </c>
       <c r="P4">
-        <v>0.636542112257579</v>
+        <v>0.06255675336932763</v>
       </c>
       <c r="Q4">
-        <v>48.35071029445158</v>
+        <v>4.561592671968</v>
       </c>
       <c r="R4">
-        <v>48.35071029445158</v>
+        <v>41.054334047712</v>
       </c>
       <c r="S4">
-        <v>0.636542112257579</v>
+        <v>0.0489845571625868</v>
       </c>
       <c r="T4">
-        <v>0.636542112257579</v>
+        <v>0.06255675336932763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H5">
+        <v>13.857264</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>12.9674375</v>
+      </c>
+      <c r="N5">
+        <v>25.934875</v>
+      </c>
+      <c r="O5">
+        <v>0.6432104381987611</v>
+      </c>
+      <c r="P5">
+        <v>0.5476168963948391</v>
+      </c>
+      <c r="Q5">
+        <v>59.89773494700001</v>
+      </c>
+      <c r="R5">
+        <v>359.386409682</v>
+      </c>
+      <c r="S5">
+        <v>0.6432104381987611</v>
+      </c>
+      <c r="T5">
+        <v>0.5476168963948391</v>
       </c>
     </row>
   </sheetData>
